--- a/Data/mean intensity.xlsx
+++ b/Data/mean intensity.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -1533,6 +1533,60 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Prevalence!$A$2:$A$16</c:f>
@@ -1593,49 +1647,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>72.631578947368425</c:v>
+                  <c:v>72.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>66.315789473684205</c:v>
+                  <c:v>66.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>65.26315789473685</c:v>
+                  <c:v>65.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.157894736842106</c:v>
+                  <c:v>23.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.526315789473683</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.526315789473683</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.4210526315789469</c:v>
+                  <c:v>8.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.3157894736842106</c:v>
+                  <c:v>6.3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.3157894736842106</c:v>
+                  <c:v>6.3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.1578947368421053</c:v>
+                  <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.1052631578947367</c:v>
+                  <c:v>2.1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.1052631578947367</c:v>
+                  <c:v>2.1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0526315789473684</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0526315789473684</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.0526315789473684</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6547,7 +6601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="69" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="69" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="AK79" sqref="AK79"/>
     </sheetView>
@@ -15989,8 +16043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16008,7 +16062,7 @@
         <v>23</v>
       </c>
       <c r="B2">
-        <v>72.631578947368425</v>
+        <v>72.599999999999994</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -16016,7 +16070,7 @@
         <v>24</v>
       </c>
       <c r="B3">
-        <v>66.315789473684205</v>
+        <v>66.3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -16024,7 +16078,7 @@
         <v>22</v>
       </c>
       <c r="B4">
-        <v>65.26315789473685</v>
+        <v>65.3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -16032,7 +16086,7 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>23.157894736842106</v>
+        <v>23.2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -16040,7 +16094,7 @@
         <v>26</v>
       </c>
       <c r="B6">
-        <v>10.526315789473683</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -16048,7 +16102,7 @@
         <v>27</v>
       </c>
       <c r="B7">
-        <v>10.526315789473683</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -16056,7 +16110,7 @@
         <v>28</v>
       </c>
       <c r="B8">
-        <v>8.4210526315789469</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -16064,7 +16118,7 @@
         <v>21</v>
       </c>
       <c r="B9">
-        <v>6.3157894736842106</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -16072,7 +16126,7 @@
         <v>29</v>
       </c>
       <c r="B10">
-        <v>6.3157894736842106</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -16080,7 +16134,7 @@
         <v>30</v>
       </c>
       <c r="B11">
-        <v>3.1578947368421053</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -16088,7 +16142,7 @@
         <v>25</v>
       </c>
       <c r="B12">
-        <v>2.1052631578947367</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -16096,7 +16150,7 @@
         <v>32</v>
       </c>
       <c r="B13">
-        <v>2.1052631578947367</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -16104,7 +16158,7 @@
         <v>31</v>
       </c>
       <c r="B14">
-        <v>1.0526315789473684</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -16112,7 +16166,7 @@
         <v>33</v>
       </c>
       <c r="B15">
-        <v>1.0526315789473684</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -16120,7 +16174,7 @@
         <v>34</v>
       </c>
       <c r="B16">
-        <v>1.0526315789473684</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Data/mean intensity.xlsx
+++ b/Data/mean intensity.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9707" activeTab="5"/>
+    <workbookView windowWidth="22188" windowHeight="9707" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="56">
   <si>
     <t>Row Labels</t>
   </si>
@@ -181,7 +181,10 @@
     <t>R. muhsamae</t>
   </si>
   <si>
-    <t>H.laechi</t>
+    <t>A. cohaerens</t>
+  </si>
+  <si>
+    <t>H. leachi</t>
   </si>
   <si>
     <t>Rhipicephalus sp.</t>
@@ -198,6 +201,9 @@
   <si>
     <t>Std.err 1s</t>
   </si>
+  <si>
+    <t>H.laechi</t>
+  </si>
 </sst>
 </file>
 
@@ -209,14 +215,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -673,75 +672,75 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2113,13 +2112,13 @@
                   <c:v>R. sanguineus</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>A. coharenses</c:v>
+                  <c:v>A. cohaerens</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>R. senegalensis</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>H.laechi</c:v>
+                  <c:v>H. leachi</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Rhipicephalus sp.</c:v>
@@ -3265,6 +3264,11 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{0045aa14-454f-4ac5-9040-f2ec63588d25}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -18670,8 +18674,8 @@
   <sheetPr/>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -18750,7 +18754,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="B10" s="1">
         <v>6.32</v>
@@ -18766,7 +18770,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B12" s="1">
         <v>2.11</v>
@@ -18774,7 +18778,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B13" s="1">
         <v>1.05</v>
@@ -18782,7 +18786,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B14" s="1">
         <v>1.05</v>
@@ -18800,7 +18804,7 @@
   <sheetPr/>
   <dimension ref="A1:CW96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BU1" workbookViewId="0">
+    <sheetView topLeftCell="BU1" workbookViewId="0">
       <selection activeCell="BZ18" sqref="BZ18"/>
     </sheetView>
   </sheetViews>
@@ -19099,13 +19103,13 @@
         <v>95</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:101">
@@ -20605,7 +20609,7 @@
     </row>
     <row r="7" s="1" customFormat="1" spans="1:101">
       <c r="A7" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -21801,7 +21805,7 @@
     </row>
     <row r="11" s="1" customFormat="1" spans="1:101">
       <c r="A11" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -22698,7 +22702,7 @@
     </row>
     <row r="14" s="1" customFormat="1" spans="1:101">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>

--- a/Data/mean intensity.xlsx
+++ b/Data/mean intensity.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="57">
   <si>
     <t>Row Labels</t>
   </si>
@@ -190,7 +190,7 @@
     <t>Rhipicephalus sp.</t>
   </si>
   <si>
-    <t>A. gemma</t>
+    <t>Amblyomma sp.</t>
   </si>
   <si>
     <t>Samples</t>
@@ -203,6 +203,9 @@
   </si>
   <si>
     <t>H.laechi</t>
+  </si>
+  <si>
+    <t>A. gemma</t>
   </si>
 </sst>
 </file>
@@ -2124,7 +2127,7 @@
                   <c:v>Rhipicephalus sp.</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>A. gemma</c:v>
+                  <c:v>Amblyomma sp.</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -18675,7 +18678,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -22702,7 +22705,7 @@
     </row>
     <row r="14" s="1" customFormat="1" spans="1:101">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>

--- a/Data/mean intensity.xlsx
+++ b/Data/mean intensity.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9707" activeTab="4"/>
+    <workbookView windowWidth="23040" windowHeight="9707" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
     <sheet name="Prevalence" sheetId="4" r:id="rId4"/>
     <sheet name="fake prevalence" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="6" r:id="rId6"/>
+    <sheet name="SAC" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="66">
   <si>
     <t>Row Labels</t>
   </si>
@@ -202,7 +202,34 @@
     <t>Std.err 1s</t>
   </si>
   <si>
+    <t>Original data set:</t>
+  </si>
+  <si>
+    <t>Standard devs:</t>
+  </si>
+  <si>
+    <t>Observed S:</t>
+  </si>
+  <si>
+    <t>Chao 2:</t>
+  </si>
+  <si>
+    <t>Jackknife 1:</t>
+  </si>
+  <si>
     <t>H.laechi</t>
+  </si>
+  <si>
+    <t>Jackknife 2:</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Bootstrap:</t>
+  </si>
+  <si>
+    <t>Bootstrap replicates, means:</t>
   </si>
   <si>
     <t>A. gemma</t>
@@ -2419,7 +2446,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$CV$1</c:f>
+              <c:f>SAC!$CV$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2457,7 +2484,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet3!$CU$2:$CU$96</c:f>
+              <c:f>SAC!$CU$2:$CU$96</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="95"/>
@@ -2751,294 +2778,294 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet3!$CV$2:$CV$96</c:f>
+              <c:f>SAC!$CV$2:$CV$96</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="95"/>
                 <c:pt idx="0">
-                  <c:v>2.8</c:v>
+                  <c:v>2.7368</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.1218</c:v>
+                  <c:v>3.9989</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.9186</c:v>
+                  <c:v>4.739</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.5068</c:v>
+                  <c:v>5.2737</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.9941</c:v>
+                  <c:v>5.7105</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.4196</c:v>
+                  <c:v>6.0883</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.7998</c:v>
+                  <c:v>6.4233</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.143</c:v>
+                  <c:v>6.724</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.4549</c:v>
+                  <c:v>6.9959</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.7397</c:v>
+                  <c:v>7.2429</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.0007</c:v>
+                  <c:v>7.4684</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.2406</c:v>
+                  <c:v>7.6749</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.4619</c:v>
+                  <c:v>7.8648</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.6666</c:v>
+                  <c:v>8.04</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.8564</c:v>
+                  <c:v>8.2022</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.0329</c:v>
+                  <c:v>8.3527</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.1973</c:v>
+                  <c:v>8.4929</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.3509</c:v>
+                  <c:v>8.6237</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.4945</c:v>
+                  <c:v>8.7461</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.6293</c:v>
+                  <c:v>8.8609</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9.7558</c:v>
+                  <c:v>8.969</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9.875</c:v>
+                  <c:v>9.0708</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.9873</c:v>
+                  <c:v>9.1671</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10.093</c:v>
+                  <c:v>9.2582</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>10.194</c:v>
+                  <c:v>9.3447</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>10.289</c:v>
+                  <c:v>9.4269</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>10.379</c:v>
+                  <c:v>9.5053</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>10.465</c:v>
+                  <c:v>9.5802</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>10.547</c:v>
+                  <c:v>9.6518</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>10.625</c:v>
+                  <c:v>9.7205</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>10.7</c:v>
+                  <c:v>9.7864</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>10.772</c:v>
+                  <c:v>9.8499</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>10.84</c:v>
+                  <c:v>9.9111</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>10.906</c:v>
+                  <c:v>9.9701</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>10.97</c:v>
+                  <c:v>10.027</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>11.031</c:v>
+                  <c:v>10.082</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>11.089</c:v>
+                  <c:v>10.136</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>11.146</c:v>
+                  <c:v>10.188</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>11.201</c:v>
+                  <c:v>10.239</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>11.255</c:v>
+                  <c:v>10.288</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>11.306</c:v>
+                  <c:v>10.336</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>11.356</c:v>
+                  <c:v>10.383</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>11.405</c:v>
+                  <c:v>10.428</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>11.452</c:v>
+                  <c:v>10.473</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>11.498</c:v>
+                  <c:v>10.517</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>11.543</c:v>
+                  <c:v>10.559</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>11.587</c:v>
+                  <c:v>10.601</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>11.63</c:v>
+                  <c:v>10.642</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>11.672</c:v>
+                  <c:v>10.683</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>11.713</c:v>
+                  <c:v>10.722</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>11.753</c:v>
+                  <c:v>10.761</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>11.792</c:v>
+                  <c:v>10.799</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>11.83</c:v>
+                  <c:v>10.836</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>11.868</c:v>
+                  <c:v>10.873</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>11.905</c:v>
+                  <c:v>10.909</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>11.941</c:v>
+                  <c:v>10.945</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>11.977</c:v>
+                  <c:v>10.98</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>12.012</c:v>
+                  <c:v>11.014</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>12.046</c:v>
+                  <c:v>11.048</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>12.08</c:v>
+                  <c:v>11.082</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>12.113</c:v>
+                  <c:v>11.115</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>12.146</c:v>
+                  <c:v>11.147</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>12.178</c:v>
+                  <c:v>11.179</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>12.21</c:v>
+                  <c:v>11.21</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>12.241</c:v>
+                  <c:v>11.241</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>12.271</c:v>
+                  <c:v>11.272</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>12.302</c:v>
+                  <c:v>11.302</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>12.331</c:v>
+                  <c:v>11.332</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>12.361</c:v>
+                  <c:v>11.361</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>12.39</c:v>
+                  <c:v>11.39</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>12.418</c:v>
+                  <c:v>11.418</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>12.446</c:v>
+                  <c:v>11.446</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>12.474</c:v>
+                  <c:v>11.474</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>12.501</c:v>
+                  <c:v>11.501</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>12.528</c:v>
+                  <c:v>11.528</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>12.555</c:v>
+                  <c:v>11.555</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>12.581</c:v>
+                  <c:v>11.581</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>12.607</c:v>
+                  <c:v>11.607</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>12.632</c:v>
+                  <c:v>11.632</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>12.657</c:v>
+                  <c:v>11.657</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>12.682</c:v>
+                  <c:v>11.682</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>12.707</c:v>
+                  <c:v>11.707</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>12.731</c:v>
+                  <c:v>11.731</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>12.755</c:v>
+                  <c:v>11.755</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>12.779</c:v>
+                  <c:v>11.779</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>12.802</c:v>
+                  <c:v>11.802</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>12.825</c:v>
+                  <c:v>11.825</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>12.848</c:v>
+                  <c:v>11.848</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>12.87</c:v>
+                  <c:v>11.87</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>12.892</c:v>
+                  <c:v>11.892</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>12.914</c:v>
+                  <c:v>11.914</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>12.936</c:v>
+                  <c:v>11.936</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>12.958</c:v>
+                  <c:v>11.958</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>12.979</c:v>
+                  <c:v>11.979</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>13</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9081,8 +9108,8 @@
   <sheetPr/>
   <dimension ref="A1:AG84"/>
   <sheetViews>
-    <sheetView zoomScale="69" zoomScaleNormal="69" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="69" zoomScaleNormal="69" topLeftCell="M1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="S81" sqref="S81"/>
     </sheetView>
@@ -18677,7 +18704,7 @@
   <sheetPr/>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A3" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -18805,10 +18832,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:CW96"/>
+  <dimension ref="A1:DB113"/>
   <sheetViews>
-    <sheetView topLeftCell="BU1" workbookViewId="0">
-      <selection activeCell="BZ18" sqref="BZ18"/>
+    <sheetView tabSelected="1" topLeftCell="CQ1" workbookViewId="0">
+      <selection activeCell="DA22" sqref="DA22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -19115,7 +19142,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:101">
+    <row r="2" s="1" customFormat="1" spans="1:105">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -19408,10 +19435,16 @@
         <v>1</v>
       </c>
       <c r="CV2" s="1">
-        <v>2.8</v>
+        <v>2.7368</v>
       </c>
       <c r="CW2" s="1">
-        <v>0.98421</v>
+        <v>0.97584</v>
+      </c>
+      <c r="CZ2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="DA2" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:101">
@@ -19707,13 +19740,13 @@
         <v>2</v>
       </c>
       <c r="CV3" s="1">
-        <v>4.1218</v>
+        <v>3.9989</v>
       </c>
       <c r="CW3" s="1">
-        <v>1.2757</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:101">
+        <v>1.266</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:105">
       <c r="A4" s="1" t="s">
         <v>45</v>
       </c>
@@ -20006,13 +20039,19 @@
         <v>3</v>
       </c>
       <c r="CV4" s="1">
-        <v>4.9186</v>
+        <v>4.739</v>
       </c>
       <c r="CW4" s="1">
-        <v>1.3575</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:101">
+        <v>1.3487</v>
+      </c>
+      <c r="CZ4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="DA4" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:106">
       <c r="A5" s="1" t="s">
         <v>43</v>
       </c>
@@ -20305,13 +20344,22 @@
         <v>4</v>
       </c>
       <c r="CV5" s="1">
-        <v>5.5068</v>
+        <v>5.2737</v>
       </c>
       <c r="CW5" s="1">
-        <v>1.3799</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:101">
+        <v>1.3729</v>
+      </c>
+      <c r="CZ5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="DA5" s="1">
+        <v>12.4947</v>
+      </c>
+      <c r="DB5" s="1">
+        <v>1.28739</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:106">
       <c r="A6" s="1" t="s">
         <v>44</v>
       </c>
@@ -20604,15 +20652,24 @@
         <v>5</v>
       </c>
       <c r="CV6" s="1">
-        <v>5.9941</v>
+        <v>5.7105</v>
       </c>
       <c r="CW6" s="1">
-        <v>1.3876</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:101">
+        <v>1.3823</v>
+      </c>
+      <c r="CZ6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="DA6" s="1">
+        <v>13.9789</v>
+      </c>
+      <c r="DB6" s="1">
+        <v>1.39186</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:106">
       <c r="A7" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -20903,13 +20960,22 @@
         <v>6</v>
       </c>
       <c r="CV7" s="1">
-        <v>6.4196</v>
+        <v>6.0883</v>
       </c>
       <c r="CW7" s="1">
-        <v>1.3926</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:101">
+        <v>1.389</v>
+      </c>
+      <c r="CZ7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="DA7" s="1">
+        <v>14.9683</v>
+      </c>
+      <c r="DB7" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:106">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
@@ -21202,10 +21268,19 @@
         <v>7</v>
       </c>
       <c r="CV8" s="1">
-        <v>6.7998</v>
+        <v>6.4233</v>
       </c>
       <c r="CW8" s="1">
-        <v>1.3976</v>
+        <v>1.3953</v>
+      </c>
+      <c r="CZ8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="DA8" s="1">
+        <v>12.9127</v>
+      </c>
+      <c r="DB8" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:101">
@@ -21501,13 +21576,13 @@
         <v>8</v>
       </c>
       <c r="CV9" s="1">
-        <v>7.143</v>
+        <v>6.724</v>
       </c>
       <c r="CW9" s="1">
-        <v>1.4029</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:101">
+        <v>1.4016</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:105">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -21800,10 +21875,16 @@
         <v>9</v>
       </c>
       <c r="CV10" s="1">
-        <v>7.4549</v>
+        <v>6.9959</v>
       </c>
       <c r="CW10" s="1">
-        <v>1.4081</v>
+        <v>1.4076</v>
+      </c>
+      <c r="CZ10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="DA10" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:101">
@@ -22099,13 +22180,13 @@
         <v>10</v>
       </c>
       <c r="CV11" s="1">
-        <v>7.7397</v>
+        <v>7.2429</v>
       </c>
       <c r="CW11" s="1">
-        <v>1.4131</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:101">
+        <v>1.413</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:106">
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
@@ -22398,13 +22479,22 @@
         <v>11</v>
       </c>
       <c r="CV12" s="1">
-        <v>8.0007</v>
+        <v>7.4684</v>
       </c>
       <c r="CW12" s="1">
         <v>1.4177</v>
       </c>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:101">
+      <c r="CZ12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="DA12" s="1">
+        <v>11.4724</v>
+      </c>
+      <c r="DB12" s="1">
+        <v>1.39296</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:106">
       <c r="A13" s="1" t="s">
         <v>46</v>
       </c>
@@ -22697,15 +22787,24 @@
         <v>12</v>
       </c>
       <c r="CV13" s="1">
-        <v>8.2406</v>
+        <v>7.6749</v>
       </c>
       <c r="CW13" s="1">
-        <v>1.4218</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="1:101">
+        <v>1.4217</v>
+      </c>
+      <c r="CZ13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="DA13" s="1">
+        <v>12.1939</v>
+      </c>
+      <c r="DB13" s="1">
+        <v>1.53206</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:106">
       <c r="A14" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
@@ -22996,21 +23095,39 @@
         <v>13</v>
       </c>
       <c r="CV14" s="1">
-        <v>8.4619</v>
+        <v>7.8648</v>
       </c>
       <c r="CW14" s="1">
-        <v>1.4252</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="99:101">
+        <v>1.4248</v>
+      </c>
+      <c r="CZ14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="DA14" s="1">
+        <v>12.4683</v>
+      </c>
+      <c r="DB14" s="1">
+        <v>2.5865</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="99:106">
       <c r="CU15" s="1">
         <v>14</v>
       </c>
       <c r="CV15" s="1">
-        <v>8.6666</v>
+        <v>8.04</v>
       </c>
       <c r="CW15" s="1">
-        <v>1.4281</v>
+        <v>1.4272</v>
+      </c>
+      <c r="CZ15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="DA15" s="1">
+        <v>11.2281</v>
+      </c>
+      <c r="DB15" s="1">
+        <v>1.14096</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="99:101">
@@ -23018,10 +23135,10 @@
         <v>15</v>
       </c>
       <c r="CV16" s="1">
-        <v>8.8564</v>
+        <v>8.2022</v>
       </c>
       <c r="CW16" s="1">
-        <v>1.4303</v>
+        <v>1.4288</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="99:101">
@@ -23029,10 +23146,10 @@
         <v>16</v>
       </c>
       <c r="CV17" s="1">
-        <v>9.0329</v>
+        <v>8.3527</v>
       </c>
       <c r="CW17" s="1">
-        <v>1.432</v>
+        <v>1.4297</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="99:101">
@@ -23040,10 +23157,10 @@
         <v>17</v>
       </c>
       <c r="CV18" s="1">
-        <v>9.1973</v>
+        <v>8.4929</v>
       </c>
       <c r="CW18" s="1">
-        <v>1.433</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="99:101">
@@ -23051,10 +23168,10 @@
         <v>18</v>
       </c>
       <c r="CV19" s="1">
-        <v>9.3509</v>
+        <v>8.6237</v>
       </c>
       <c r="CW19" s="1">
-        <v>1.4335</v>
+        <v>1.4296</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="99:101">
@@ -23062,10 +23179,10 @@
         <v>19</v>
       </c>
       <c r="CV20" s="1">
-        <v>9.4945</v>
+        <v>8.7461</v>
       </c>
       <c r="CW20" s="1">
-        <v>1.4335</v>
+        <v>1.4286</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="99:101">
@@ -23073,10 +23190,10 @@
         <v>20</v>
       </c>
       <c r="CV21" s="1">
-        <v>9.6293</v>
+        <v>8.8609</v>
       </c>
       <c r="CW21" s="1">
-        <v>1.4329</v>
+        <v>1.4271</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="99:101">
@@ -23084,10 +23201,10 @@
         <v>21</v>
       </c>
       <c r="CV22" s="1">
-        <v>9.7558</v>
+        <v>8.969</v>
       </c>
       <c r="CW22" s="1">
-        <v>1.4319</v>
+        <v>1.425</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="99:101">
@@ -23095,10 +23212,10 @@
         <v>22</v>
       </c>
       <c r="CV23" s="1">
-        <v>9.875</v>
+        <v>9.0708</v>
       </c>
       <c r="CW23" s="1">
-        <v>1.4305</v>
+        <v>1.4226</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="99:101">
@@ -23106,10 +23223,10 @@
         <v>23</v>
       </c>
       <c r="CV24" s="1">
-        <v>9.9873</v>
+        <v>9.1671</v>
       </c>
       <c r="CW24" s="1">
-        <v>1.4287</v>
+        <v>1.4198</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="99:101">
@@ -23117,10 +23234,10 @@
         <v>24</v>
       </c>
       <c r="CV25" s="1">
-        <v>10.093</v>
+        <v>9.2582</v>
       </c>
       <c r="CW25" s="1">
-        <v>1.4265</v>
+        <v>1.4166</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" spans="99:101">
@@ -23128,10 +23245,10 @@
         <v>25</v>
       </c>
       <c r="CV26" s="1">
-        <v>10.194</v>
+        <v>9.3447</v>
       </c>
       <c r="CW26" s="1">
-        <v>1.4239</v>
+        <v>1.4132</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" spans="99:101">
@@ -23139,10 +23256,10 @@
         <v>26</v>
       </c>
       <c r="CV27" s="1">
-        <v>10.289</v>
+        <v>9.4269</v>
       </c>
       <c r="CW27" s="1">
-        <v>1.4211</v>
+        <v>1.4095</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" spans="99:101">
@@ -23150,10 +23267,10 @@
         <v>27</v>
       </c>
       <c r="CV28" s="1">
-        <v>10.379</v>
+        <v>9.5053</v>
       </c>
       <c r="CW28" s="1">
-        <v>1.4181</v>
+        <v>1.4056</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" spans="99:101">
@@ -23161,10 +23278,10 @@
         <v>28</v>
       </c>
       <c r="CV29" s="1">
-        <v>10.465</v>
+        <v>9.5802</v>
       </c>
       <c r="CW29" s="1">
-        <v>1.4148</v>
+        <v>1.4016</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" spans="99:101">
@@ -23172,10 +23289,10 @@
         <v>29</v>
       </c>
       <c r="CV30" s="1">
-        <v>10.547</v>
+        <v>9.6518</v>
       </c>
       <c r="CW30" s="1">
-        <v>1.4113</v>
+        <v>1.3974</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" spans="99:101">
@@ -23183,10 +23300,10 @@
         <v>30</v>
       </c>
       <c r="CV31" s="1">
-        <v>10.625</v>
+        <v>9.7205</v>
       </c>
       <c r="CW31" s="1">
-        <v>1.4077</v>
+        <v>1.3931</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" spans="99:101">
@@ -23194,10 +23311,10 @@
         <v>31</v>
       </c>
       <c r="CV32" s="1">
-        <v>10.7</v>
+        <v>9.7864</v>
       </c>
       <c r="CW32" s="1">
-        <v>1.4039</v>
+        <v>1.3887</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" spans="99:101">
@@ -23205,10 +23322,10 @@
         <v>32</v>
       </c>
       <c r="CV33" s="1">
-        <v>10.772</v>
+        <v>9.8499</v>
       </c>
       <c r="CW33" s="1">
-        <v>1.4001</v>
+        <v>1.3843</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" spans="99:101">
@@ -23216,10 +23333,10 @@
         <v>33</v>
       </c>
       <c r="CV34" s="1">
-        <v>10.84</v>
+        <v>9.9111</v>
       </c>
       <c r="CW34" s="1">
-        <v>1.3961</v>
+        <v>1.3798</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" spans="99:101">
@@ -23227,10 +23344,10 @@
         <v>34</v>
       </c>
       <c r="CV35" s="1">
-        <v>10.906</v>
+        <v>9.9701</v>
       </c>
       <c r="CW35" s="1">
-        <v>1.3921</v>
+        <v>1.3754</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="1" spans="99:101">
@@ -23238,10 +23355,10 @@
         <v>35</v>
       </c>
       <c r="CV36" s="1">
-        <v>10.97</v>
+        <v>10.027</v>
       </c>
       <c r="CW36" s="1">
-        <v>1.3881</v>
+        <v>1.371</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" spans="99:101">
@@ -23249,10 +23366,10 @@
         <v>36</v>
       </c>
       <c r="CV37" s="1">
-        <v>11.031</v>
+        <v>10.082</v>
       </c>
       <c r="CW37" s="1">
-        <v>1.3841</v>
+        <v>1.3666</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="1" spans="99:101">
@@ -23260,10 +23377,10 @@
         <v>37</v>
       </c>
       <c r="CV38" s="1">
-        <v>11.089</v>
+        <v>10.136</v>
       </c>
       <c r="CW38" s="1">
-        <v>1.38</v>
+        <v>1.3623</v>
       </c>
     </row>
     <row r="39" s="1" customFormat="1" spans="99:101">
@@ -23271,10 +23388,10 @@
         <v>38</v>
       </c>
       <c r="CV39" s="1">
-        <v>11.146</v>
+        <v>10.188</v>
       </c>
       <c r="CW39" s="1">
-        <v>1.376</v>
+        <v>1.358</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" spans="99:101">
@@ -23282,10 +23399,10 @@
         <v>39</v>
       </c>
       <c r="CV40" s="1">
-        <v>11.201</v>
+        <v>10.239</v>
       </c>
       <c r="CW40" s="1">
-        <v>1.372</v>
+        <v>1.3538</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="1" spans="99:101">
@@ -23293,10 +23410,10 @@
         <v>40</v>
       </c>
       <c r="CV41" s="1">
-        <v>11.255</v>
+        <v>10.288</v>
       </c>
       <c r="CW41" s="1">
-        <v>1.368</v>
+        <v>1.3497</v>
       </c>
     </row>
     <row r="42" s="1" customFormat="1" spans="99:101">
@@ -23304,10 +23421,10 @@
         <v>41</v>
       </c>
       <c r="CV42" s="1">
-        <v>11.306</v>
+        <v>10.336</v>
       </c>
       <c r="CW42" s="1">
-        <v>1.3641</v>
+        <v>1.3457</v>
       </c>
     </row>
     <row r="43" s="1" customFormat="1" spans="99:101">
@@ -23315,10 +23432,10 @@
         <v>42</v>
       </c>
       <c r="CV43" s="1">
-        <v>11.356</v>
+        <v>10.383</v>
       </c>
       <c r="CW43" s="1">
-        <v>1.3602</v>
+        <v>1.3418</v>
       </c>
     </row>
     <row r="44" s="1" customFormat="1" spans="99:101">
@@ -23326,10 +23443,10 @@
         <v>43</v>
       </c>
       <c r="CV44" s="1">
-        <v>11.405</v>
+        <v>10.428</v>
       </c>
       <c r="CW44" s="1">
-        <v>1.3564</v>
+        <v>1.338</v>
       </c>
     </row>
     <row r="45" s="1" customFormat="1" spans="99:101">
@@ -23337,10 +23454,10 @@
         <v>44</v>
       </c>
       <c r="CV45" s="1">
-        <v>11.452</v>
+        <v>10.473</v>
       </c>
       <c r="CW45" s="1">
-        <v>1.3527</v>
+        <v>1.3343</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="1" spans="99:101">
@@ -23348,10 +23465,10 @@
         <v>45</v>
       </c>
       <c r="CV46" s="1">
-        <v>11.498</v>
+        <v>10.517</v>
       </c>
       <c r="CW46" s="1">
-        <v>1.3491</v>
+        <v>1.3307</v>
       </c>
     </row>
     <row r="47" s="1" customFormat="1" spans="99:101">
@@ -23359,10 +23476,10 @@
         <v>46</v>
       </c>
       <c r="CV47" s="1">
-        <v>11.543</v>
+        <v>10.559</v>
       </c>
       <c r="CW47" s="1">
-        <v>1.3455</v>
+        <v>1.3273</v>
       </c>
     </row>
     <row r="48" s="1" customFormat="1" spans="99:101">
@@ -23370,10 +23487,10 @@
         <v>47</v>
       </c>
       <c r="CV48" s="1">
-        <v>11.587</v>
+        <v>10.601</v>
       </c>
       <c r="CW48" s="1">
-        <v>1.3421</v>
+        <v>1.324</v>
       </c>
     </row>
     <row r="49" s="1" customFormat="1" spans="99:101">
@@ -23381,10 +23498,10 @@
         <v>48</v>
       </c>
       <c r="CV49" s="1">
-        <v>11.63</v>
+        <v>10.642</v>
       </c>
       <c r="CW49" s="1">
-        <v>1.3388</v>
+        <v>1.3208</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="1" spans="99:101">
@@ -23392,10 +23509,10 @@
         <v>49</v>
       </c>
       <c r="CV50" s="1">
-        <v>11.672</v>
+        <v>10.683</v>
       </c>
       <c r="CW50" s="1">
-        <v>1.3355</v>
+        <v>1.3177</v>
       </c>
     </row>
     <row r="51" s="1" customFormat="1" spans="99:101">
@@ -23403,10 +23520,10 @@
         <v>50</v>
       </c>
       <c r="CV51" s="1">
-        <v>11.713</v>
+        <v>10.722</v>
       </c>
       <c r="CW51" s="1">
-        <v>1.3324</v>
+        <v>1.3148</v>
       </c>
     </row>
     <row r="52" s="1" customFormat="1" spans="99:101">
@@ -23414,10 +23531,10 @@
         <v>51</v>
       </c>
       <c r="CV52" s="1">
-        <v>11.753</v>
+        <v>10.761</v>
       </c>
       <c r="CW52" s="1">
-        <v>1.3294</v>
+        <v>1.312</v>
       </c>
     </row>
     <row r="53" s="1" customFormat="1" spans="99:101">
@@ -23425,10 +23542,10 @@
         <v>52</v>
       </c>
       <c r="CV53" s="1">
-        <v>11.792</v>
+        <v>10.799</v>
       </c>
       <c r="CW53" s="1">
-        <v>1.3265</v>
+        <v>1.3093</v>
       </c>
     </row>
     <row r="54" s="1" customFormat="1" spans="99:101">
@@ -23436,10 +23553,10 @@
         <v>53</v>
       </c>
       <c r="CV54" s="1">
-        <v>11.83</v>
+        <v>10.836</v>
       </c>
       <c r="CW54" s="1">
-        <v>1.3237</v>
+        <v>1.3067</v>
       </c>
     </row>
     <row r="55" s="1" customFormat="1" spans="99:101">
@@ -23447,10 +23564,10 @@
         <v>54</v>
       </c>
       <c r="CV55" s="1">
-        <v>11.868</v>
+        <v>10.873</v>
       </c>
       <c r="CW55" s="1">
-        <v>1.321</v>
+        <v>1.3043</v>
       </c>
     </row>
     <row r="56" s="1" customFormat="1" spans="99:101">
@@ -23458,10 +23575,10 @@
         <v>55</v>
       </c>
       <c r="CV56" s="1">
-        <v>11.905</v>
+        <v>10.909</v>
       </c>
       <c r="CW56" s="1">
-        <v>1.3185</v>
+        <v>1.302</v>
       </c>
     </row>
     <row r="57" s="1" customFormat="1" spans="99:101">
@@ -23469,10 +23586,10 @@
         <v>56</v>
       </c>
       <c r="CV57" s="1">
-        <v>11.941</v>
+        <v>10.945</v>
       </c>
       <c r="CW57" s="1">
-        <v>1.316</v>
+        <v>1.2998</v>
       </c>
     </row>
     <row r="58" s="1" customFormat="1" spans="99:101">
@@ -23480,10 +23597,10 @@
         <v>57</v>
       </c>
       <c r="CV58" s="1">
-        <v>11.977</v>
+        <v>10.98</v>
       </c>
       <c r="CW58" s="1">
-        <v>1.3137</v>
+        <v>1.2977</v>
       </c>
     </row>
     <row r="59" s="1" customFormat="1" spans="99:101">
@@ -23491,10 +23608,10 @@
         <v>58</v>
       </c>
       <c r="CV59" s="1">
-        <v>12.012</v>
+        <v>11.014</v>
       </c>
       <c r="CW59" s="1">
-        <v>1.3115</v>
+        <v>1.2958</v>
       </c>
     </row>
     <row r="60" s="1" customFormat="1" spans="99:101">
@@ -23502,10 +23619,10 @@
         <v>59</v>
       </c>
       <c r="CV60" s="1">
-        <v>12.046</v>
+        <v>11.048</v>
       </c>
       <c r="CW60" s="1">
-        <v>1.3094</v>
+        <v>1.294</v>
       </c>
     </row>
     <row r="61" s="1" customFormat="1" spans="99:101">
@@ -23513,10 +23630,10 @@
         <v>60</v>
       </c>
       <c r="CV61" s="1">
-        <v>12.08</v>
+        <v>11.082</v>
       </c>
       <c r="CW61" s="1">
-        <v>1.3074</v>
+        <v>1.2923</v>
       </c>
     </row>
     <row r="62" s="1" customFormat="1" spans="99:101">
@@ -23524,10 +23641,10 @@
         <v>61</v>
       </c>
       <c r="CV62" s="1">
-        <v>12.113</v>
+        <v>11.115</v>
       </c>
       <c r="CW62" s="1">
-        <v>1.3056</v>
+        <v>1.2907</v>
       </c>
     </row>
     <row r="63" s="1" customFormat="1" spans="99:101">
@@ -23535,10 +23652,10 @@
         <v>62</v>
       </c>
       <c r="CV63" s="1">
-        <v>12.146</v>
+        <v>11.147</v>
       </c>
       <c r="CW63" s="1">
-        <v>1.3038</v>
+        <v>1.2892</v>
       </c>
     </row>
     <row r="64" s="1" customFormat="1" spans="99:101">
@@ -23546,10 +23663,10 @@
         <v>63</v>
       </c>
       <c r="CV64" s="1">
-        <v>12.178</v>
+        <v>11.179</v>
       </c>
       <c r="CW64" s="1">
-        <v>1.3022</v>
+        <v>1.2879</v>
       </c>
     </row>
     <row r="65" s="1" customFormat="1" spans="99:101">
@@ -23557,10 +23674,10 @@
         <v>64</v>
       </c>
       <c r="CV65" s="1">
-        <v>12.21</v>
+        <v>11.21</v>
       </c>
       <c r="CW65" s="1">
-        <v>1.3007</v>
+        <v>1.2867</v>
       </c>
     </row>
     <row r="66" s="1" customFormat="1" spans="99:101">
@@ -23568,10 +23685,10 @@
         <v>65</v>
       </c>
       <c r="CV66" s="1">
-        <v>12.241</v>
+        <v>11.241</v>
       </c>
       <c r="CW66" s="1">
-        <v>1.2993</v>
+        <v>1.2856</v>
       </c>
     </row>
     <row r="67" s="1" customFormat="1" spans="99:101">
@@ -23579,10 +23696,10 @@
         <v>66</v>
       </c>
       <c r="CV67" s="1">
-        <v>12.271</v>
+        <v>11.272</v>
       </c>
       <c r="CW67" s="1">
-        <v>1.298</v>
+        <v>1.2846</v>
       </c>
     </row>
     <row r="68" s="1" customFormat="1" spans="99:101">
@@ -23590,10 +23707,10 @@
         <v>67</v>
       </c>
       <c r="CV68" s="1">
-        <v>12.302</v>
+        <v>11.302</v>
       </c>
       <c r="CW68" s="1">
-        <v>1.2969</v>
+        <v>1.2837</v>
       </c>
     </row>
     <row r="69" s="1" customFormat="1" spans="99:101">
@@ -23601,10 +23718,10 @@
         <v>68</v>
       </c>
       <c r="CV69" s="1">
-        <v>12.331</v>
+        <v>11.332</v>
       </c>
       <c r="CW69" s="1">
-        <v>1.2958</v>
+        <v>1.2829</v>
       </c>
     </row>
     <row r="70" s="1" customFormat="1" spans="99:101">
@@ -23612,10 +23729,10 @@
         <v>69</v>
       </c>
       <c r="CV70" s="1">
-        <v>12.361</v>
+        <v>11.361</v>
       </c>
       <c r="CW70" s="1">
-        <v>1.2949</v>
+        <v>1.2822</v>
       </c>
     </row>
     <row r="71" s="1" customFormat="1" spans="99:101">
@@ -23623,10 +23740,10 @@
         <v>70</v>
       </c>
       <c r="CV71" s="1">
-        <v>12.39</v>
+        <v>11.39</v>
       </c>
       <c r="CW71" s="1">
-        <v>1.2941</v>
+        <v>1.2817</v>
       </c>
     </row>
     <row r="72" s="1" customFormat="1" spans="99:101">
@@ -23634,10 +23751,10 @@
         <v>71</v>
       </c>
       <c r="CV72" s="1">
-        <v>12.418</v>
+        <v>11.418</v>
       </c>
       <c r="CW72" s="1">
-        <v>1.2934</v>
+        <v>1.2812</v>
       </c>
     </row>
     <row r="73" s="1" customFormat="1" spans="99:101">
@@ -23645,10 +23762,10 @@
         <v>72</v>
       </c>
       <c r="CV73" s="1">
-        <v>12.446</v>
+        <v>11.446</v>
       </c>
       <c r="CW73" s="1">
-        <v>1.2928</v>
+        <v>1.2809</v>
       </c>
     </row>
     <row r="74" s="1" customFormat="1" spans="99:101">
@@ -23656,10 +23773,10 @@
         <v>73</v>
       </c>
       <c r="CV74" s="1">
-        <v>12.474</v>
+        <v>11.474</v>
       </c>
       <c r="CW74" s="1">
-        <v>1.2923</v>
+        <v>1.2807</v>
       </c>
     </row>
     <row r="75" s="1" customFormat="1" spans="99:101">
@@ -23667,10 +23784,10 @@
         <v>74</v>
       </c>
       <c r="CV75" s="1">
-        <v>12.501</v>
+        <v>11.501</v>
       </c>
       <c r="CW75" s="1">
-        <v>1.2919</v>
+        <v>1.2806</v>
       </c>
     </row>
     <row r="76" s="1" customFormat="1" spans="99:101">
@@ -23678,10 +23795,10 @@
         <v>75</v>
       </c>
       <c r="CV76" s="1">
-        <v>12.528</v>
+        <v>11.528</v>
       </c>
       <c r="CW76" s="1">
-        <v>1.2917</v>
+        <v>1.2805</v>
       </c>
     </row>
     <row r="77" s="1" customFormat="1" spans="99:101">
@@ -23689,10 +23806,10 @@
         <v>76</v>
       </c>
       <c r="CV77" s="1">
-        <v>12.555</v>
+        <v>11.555</v>
       </c>
       <c r="CW77" s="1">
-        <v>1.2916</v>
+        <v>1.2806</v>
       </c>
     </row>
     <row r="78" s="1" customFormat="1" spans="99:101">
@@ -23700,10 +23817,10 @@
         <v>77</v>
       </c>
       <c r="CV78" s="1">
-        <v>12.581</v>
+        <v>11.581</v>
       </c>
       <c r="CW78" s="1">
-        <v>1.2915</v>
+        <v>1.2808</v>
       </c>
     </row>
     <row r="79" s="1" customFormat="1" spans="99:101">
@@ -23711,10 +23828,10 @@
         <v>78</v>
       </c>
       <c r="CV79" s="1">
-        <v>12.607</v>
+        <v>11.607</v>
       </c>
       <c r="CW79" s="1">
-        <v>1.2916</v>
+        <v>1.2812</v>
       </c>
     </row>
     <row r="80" s="1" customFormat="1" spans="99:101">
@@ -23722,10 +23839,10 @@
         <v>79</v>
       </c>
       <c r="CV80" s="1">
-        <v>12.632</v>
+        <v>11.632</v>
       </c>
       <c r="CW80" s="1">
-        <v>1.2918</v>
+        <v>1.2816</v>
       </c>
     </row>
     <row r="81" s="1" customFormat="1" spans="99:101">
@@ -23733,10 +23850,10 @@
         <v>80</v>
       </c>
       <c r="CV81" s="1">
-        <v>12.657</v>
+        <v>11.657</v>
       </c>
       <c r="CW81" s="1">
-        <v>1.2921</v>
+        <v>1.2821</v>
       </c>
     </row>
     <row r="82" s="1" customFormat="1" spans="99:101">
@@ -23744,10 +23861,10 @@
         <v>81</v>
       </c>
       <c r="CV82" s="1">
-        <v>12.682</v>
+        <v>11.682</v>
       </c>
       <c r="CW82" s="1">
-        <v>1.2925</v>
+        <v>1.2828</v>
       </c>
     </row>
     <row r="83" s="1" customFormat="1" spans="99:101">
@@ -23755,10 +23872,10 @@
         <v>82</v>
       </c>
       <c r="CV83" s="1">
-        <v>12.707</v>
+        <v>11.707</v>
       </c>
       <c r="CW83" s="1">
-        <v>1.2931</v>
+        <v>1.2835</v>
       </c>
     </row>
     <row r="84" s="1" customFormat="1" spans="99:101">
@@ -23766,10 +23883,10 @@
         <v>83</v>
       </c>
       <c r="CV84" s="1">
-        <v>12.731</v>
+        <v>11.731</v>
       </c>
       <c r="CW84" s="1">
-        <v>1.2937</v>
+        <v>1.2844</v>
       </c>
     </row>
     <row r="85" s="1" customFormat="1" spans="99:101">
@@ -23777,10 +23894,10 @@
         <v>84</v>
       </c>
       <c r="CV85" s="1">
-        <v>12.755</v>
+        <v>11.755</v>
       </c>
       <c r="CW85" s="1">
-        <v>1.2945</v>
+        <v>1.2853</v>
       </c>
     </row>
     <row r="86" s="1" customFormat="1" spans="99:101">
@@ -23788,10 +23905,10 @@
         <v>85</v>
       </c>
       <c r="CV86" s="1">
-        <v>12.779</v>
+        <v>11.779</v>
       </c>
       <c r="CW86" s="1">
-        <v>1.2954</v>
+        <v>1.2864</v>
       </c>
     </row>
     <row r="87" s="1" customFormat="1" spans="99:101">
@@ -23799,10 +23916,10 @@
         <v>86</v>
       </c>
       <c r="CV87" s="1">
-        <v>12.802</v>
+        <v>11.802</v>
       </c>
       <c r="CW87" s="1">
-        <v>1.2964</v>
+        <v>1.2876</v>
       </c>
     </row>
     <row r="88" s="1" customFormat="1" spans="99:101">
@@ -23810,10 +23927,10 @@
         <v>87</v>
       </c>
       <c r="CV88" s="1">
-        <v>12.825</v>
+        <v>11.825</v>
       </c>
       <c r="CW88" s="1">
-        <v>1.2975</v>
+        <v>1.2889</v>
       </c>
     </row>
     <row r="89" s="1" customFormat="1" spans="99:101">
@@ -23821,10 +23938,10 @@
         <v>88</v>
       </c>
       <c r="CV89" s="1">
-        <v>12.848</v>
+        <v>11.848</v>
       </c>
       <c r="CW89" s="1">
-        <v>1.2987</v>
+        <v>1.2903</v>
       </c>
     </row>
     <row r="90" s="1" customFormat="1" spans="99:101">
@@ -23832,10 +23949,10 @@
         <v>89</v>
       </c>
       <c r="CV90" s="1">
-        <v>12.87</v>
+        <v>11.87</v>
       </c>
       <c r="CW90" s="1">
-        <v>1.3</v>
+        <v>1.2918</v>
       </c>
     </row>
     <row r="91" s="1" customFormat="1" spans="99:101">
@@ -23843,10 +23960,10 @@
         <v>90</v>
       </c>
       <c r="CV91" s="1">
-        <v>12.892</v>
+        <v>11.892</v>
       </c>
       <c r="CW91" s="1">
-        <v>1.3015</v>
+        <v>1.2935</v>
       </c>
     </row>
     <row r="92" s="1" customFormat="1" spans="99:101">
@@ -23854,10 +23971,10 @@
         <v>91</v>
       </c>
       <c r="CV92" s="1">
-        <v>12.914</v>
+        <v>11.914</v>
       </c>
       <c r="CW92" s="1">
-        <v>1.3031</v>
+        <v>1.2952</v>
       </c>
     </row>
     <row r="93" s="1" customFormat="1" spans="99:101">
@@ -23865,10 +23982,10 @@
         <v>92</v>
       </c>
       <c r="CV93" s="1">
-        <v>12.936</v>
+        <v>11.936</v>
       </c>
       <c r="CW93" s="1">
-        <v>1.3047</v>
+        <v>1.2971</v>
       </c>
     </row>
     <row r="94" s="1" customFormat="1" spans="99:101">
@@ -23876,10 +23993,10 @@
         <v>93</v>
       </c>
       <c r="CV94" s="1">
-        <v>12.958</v>
+        <v>11.958</v>
       </c>
       <c r="CW94" s="1">
-        <v>1.3066</v>
+        <v>1.2991</v>
       </c>
     </row>
     <row r="95" s="1" customFormat="1" spans="99:101">
@@ -23887,10 +24004,10 @@
         <v>94</v>
       </c>
       <c r="CV95" s="1">
-        <v>12.979</v>
+        <v>11.979</v>
       </c>
       <c r="CW95" s="1">
-        <v>1.3085</v>
+        <v>1.3012</v>
       </c>
     </row>
     <row r="96" s="1" customFormat="1" spans="99:101">
@@ -23898,10 +24015,3780 @@
         <v>95</v>
       </c>
       <c r="CV96" s="1">
+        <v>12</v>
+      </c>
+      <c r="CW96" s="1">
+        <v>1.3034</v>
+      </c>
+    </row>
+    <row r="101" spans="1:96">
+      <c r="A101" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B101" s="1">
+        <v>1</v>
+      </c>
+      <c r="C101" s="1">
+        <v>2</v>
+      </c>
+      <c r="D101" s="1">
+        <v>3</v>
+      </c>
+      <c r="E101" s="1">
+        <v>4</v>
+      </c>
+      <c r="F101" s="1">
+        <v>5</v>
+      </c>
+      <c r="G101" s="1">
+        <v>6</v>
+      </c>
+      <c r="H101" s="1">
+        <v>7</v>
+      </c>
+      <c r="I101" s="1">
+        <v>8</v>
+      </c>
+      <c r="J101" s="1">
+        <v>9</v>
+      </c>
+      <c r="K101" s="1">
+        <v>10</v>
+      </c>
+      <c r="L101" s="1">
+        <v>11</v>
+      </c>
+      <c r="M101" s="1">
+        <v>12</v>
+      </c>
+      <c r="N101" s="1">
         <v>13</v>
       </c>
-      <c r="CW96" s="1">
-        <v>1.3105</v>
+      <c r="O101" s="1">
+        <v>14</v>
+      </c>
+      <c r="P101" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q101" s="1">
+        <v>16</v>
+      </c>
+      <c r="R101" s="1">
+        <v>17</v>
+      </c>
+      <c r="S101" s="1">
+        <v>18</v>
+      </c>
+      <c r="T101" s="1">
+        <v>19</v>
+      </c>
+      <c r="U101" s="1">
+        <v>20</v>
+      </c>
+      <c r="V101" s="1">
+        <v>21</v>
+      </c>
+      <c r="W101" s="1">
+        <v>22</v>
+      </c>
+      <c r="X101" s="1">
+        <v>23</v>
+      </c>
+      <c r="Y101" s="1">
+        <v>24</v>
+      </c>
+      <c r="Z101" s="1">
+        <v>25</v>
+      </c>
+      <c r="AA101" s="1">
+        <v>26</v>
+      </c>
+      <c r="AB101" s="1">
+        <v>27</v>
+      </c>
+      <c r="AC101" s="1">
+        <v>28</v>
+      </c>
+      <c r="AD101" s="1">
+        <v>29</v>
+      </c>
+      <c r="AE101" s="1">
+        <v>30</v>
+      </c>
+      <c r="AF101" s="1">
+        <v>31</v>
+      </c>
+      <c r="AG101" s="1">
+        <v>32</v>
+      </c>
+      <c r="AH101" s="1">
+        <v>33</v>
+      </c>
+      <c r="AI101" s="1">
+        <v>34</v>
+      </c>
+      <c r="AJ101" s="1">
+        <v>35</v>
+      </c>
+      <c r="AK101" s="1">
+        <v>36</v>
+      </c>
+      <c r="AL101" s="1">
+        <v>37</v>
+      </c>
+      <c r="AM101" s="1">
+        <v>38</v>
+      </c>
+      <c r="AN101" s="1">
+        <v>39</v>
+      </c>
+      <c r="AO101" s="1">
+        <v>40</v>
+      </c>
+      <c r="AP101" s="1">
+        <v>41</v>
+      </c>
+      <c r="AQ101" s="1">
+        <v>42</v>
+      </c>
+      <c r="AR101" s="1">
+        <v>43</v>
+      </c>
+      <c r="AS101" s="1">
+        <v>44</v>
+      </c>
+      <c r="AT101" s="1">
+        <v>45</v>
+      </c>
+      <c r="AU101" s="1">
+        <v>46</v>
+      </c>
+      <c r="AV101" s="1">
+        <v>47</v>
+      </c>
+      <c r="AW101" s="1">
+        <v>48</v>
+      </c>
+      <c r="AX101" s="1">
+        <v>49</v>
+      </c>
+      <c r="AY101" s="1">
+        <v>50</v>
+      </c>
+      <c r="AZ101" s="1">
+        <v>51</v>
+      </c>
+      <c r="BA101" s="1">
+        <v>52</v>
+      </c>
+      <c r="BB101" s="1">
+        <v>53</v>
+      </c>
+      <c r="BC101" s="1">
+        <v>54</v>
+      </c>
+      <c r="BD101" s="1">
+        <v>55</v>
+      </c>
+      <c r="BE101" s="1">
+        <v>56</v>
+      </c>
+      <c r="BF101" s="1">
+        <v>57</v>
+      </c>
+      <c r="BG101" s="1">
+        <v>58</v>
+      </c>
+      <c r="BH101" s="1">
+        <v>59</v>
+      </c>
+      <c r="BI101" s="1">
+        <v>60</v>
+      </c>
+      <c r="BJ101" s="1">
+        <v>61</v>
+      </c>
+      <c r="BK101" s="1">
+        <v>62</v>
+      </c>
+      <c r="BL101" s="1">
+        <v>63</v>
+      </c>
+      <c r="BM101" s="1">
+        <v>64</v>
+      </c>
+      <c r="BN101" s="1">
+        <v>65</v>
+      </c>
+      <c r="BO101" s="1">
+        <v>66</v>
+      </c>
+      <c r="BP101" s="1">
+        <v>67</v>
+      </c>
+      <c r="BQ101" s="1">
+        <v>68</v>
+      </c>
+      <c r="BR101" s="1">
+        <v>69</v>
+      </c>
+      <c r="BS101" s="1">
+        <v>70</v>
+      </c>
+      <c r="BT101" s="1">
+        <v>71</v>
+      </c>
+      <c r="BU101" s="1">
+        <v>72</v>
+      </c>
+      <c r="BV101" s="1">
+        <v>73</v>
+      </c>
+      <c r="BW101" s="1">
+        <v>74</v>
+      </c>
+      <c r="BX101" s="1">
+        <v>75</v>
+      </c>
+      <c r="BY101" s="1">
+        <v>76</v>
+      </c>
+      <c r="BZ101" s="1">
+        <v>77</v>
+      </c>
+      <c r="CA101" s="1">
+        <v>78</v>
+      </c>
+      <c r="CB101" s="1">
+        <v>79</v>
+      </c>
+      <c r="CC101" s="1">
+        <v>80</v>
+      </c>
+      <c r="CD101" s="1">
+        <v>81</v>
+      </c>
+      <c r="CE101" s="1">
+        <v>82</v>
+      </c>
+      <c r="CF101" s="1">
+        <v>83</v>
+      </c>
+      <c r="CG101" s="1">
+        <v>84</v>
+      </c>
+      <c r="CH101" s="1">
+        <v>85</v>
+      </c>
+      <c r="CI101" s="1">
+        <v>86</v>
+      </c>
+      <c r="CJ101" s="1">
+        <v>87</v>
+      </c>
+      <c r="CK101" s="1">
+        <v>88</v>
+      </c>
+      <c r="CL101" s="1">
+        <v>89</v>
+      </c>
+      <c r="CM101" s="1">
+        <v>90</v>
+      </c>
+      <c r="CN101" s="1">
+        <v>91</v>
+      </c>
+      <c r="CO101" s="1">
+        <v>92</v>
+      </c>
+      <c r="CP101" s="1">
+        <v>93</v>
+      </c>
+      <c r="CQ101" s="1">
+        <v>94</v>
+      </c>
+      <c r="CR101" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="102" spans="1:96">
+      <c r="A102" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B102" s="1">
+        <v>1</v>
+      </c>
+      <c r="C102" s="1">
+        <v>0</v>
+      </c>
+      <c r="D102" s="1">
+        <v>2</v>
+      </c>
+      <c r="E102" s="1">
+        <v>2</v>
+      </c>
+      <c r="F102" s="1">
+        <v>4</v>
+      </c>
+      <c r="G102" s="1">
+        <v>0</v>
+      </c>
+      <c r="H102" s="1">
+        <v>12</v>
+      </c>
+      <c r="I102" s="1">
+        <v>0</v>
+      </c>
+      <c r="J102" s="1">
+        <v>3</v>
+      </c>
+      <c r="K102" s="1">
+        <v>1</v>
+      </c>
+      <c r="L102" s="1">
+        <v>0</v>
+      </c>
+      <c r="M102" s="1">
+        <v>0</v>
+      </c>
+      <c r="N102" s="1">
+        <v>0</v>
+      </c>
+      <c r="O102" s="1">
+        <v>0</v>
+      </c>
+      <c r="P102" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="1">
+        <v>0</v>
+      </c>
+      <c r="R102" s="1">
+        <v>0</v>
+      </c>
+      <c r="S102" s="1">
+        <v>0</v>
+      </c>
+      <c r="T102" s="1">
+        <v>0</v>
+      </c>
+      <c r="U102" s="1">
+        <v>1</v>
+      </c>
+      <c r="V102" s="1">
+        <v>0</v>
+      </c>
+      <c r="W102" s="1">
+        <v>1</v>
+      </c>
+      <c r="X102" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF102" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG102" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH102" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI102" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ102" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK102" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL102" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM102" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN102" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO102" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP102" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ102" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR102" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS102" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT102" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU102" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV102" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW102" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX102" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY102" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ102" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA102" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB102" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC102" s="1">
+        <v>3</v>
+      </c>
+      <c r="BD102" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE102" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF102" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG102" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH102" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI102" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ102" s="1">
+        <v>1</v>
+      </c>
+      <c r="BK102" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL102" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM102" s="1">
+        <v>5</v>
+      </c>
+      <c r="BN102" s="1">
+        <v>4</v>
+      </c>
+      <c r="BO102" s="1">
+        <v>1</v>
+      </c>
+      <c r="BP102" s="1">
+        <v>2</v>
+      </c>
+      <c r="BQ102" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR102" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS102" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT102" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU102" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV102" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW102" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX102" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY102" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ102" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA102" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB102" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC102" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD102" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE102" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF102" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG102" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH102" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI102" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ102" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK102" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL102" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM102" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN102" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO102" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP102" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ102" s="1">
+        <v>0</v>
+      </c>
+      <c r="CR102" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:96">
+      <c r="A103" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B103" s="1">
+        <v>46</v>
+      </c>
+      <c r="C103" s="1">
+        <v>35</v>
+      </c>
+      <c r="D103" s="1">
+        <v>40</v>
+      </c>
+      <c r="E103" s="1">
+        <v>25</v>
+      </c>
+      <c r="F103" s="1">
+        <v>14</v>
+      </c>
+      <c r="G103" s="1">
+        <v>48</v>
+      </c>
+      <c r="H103" s="1">
+        <v>8</v>
+      </c>
+      <c r="I103" s="1">
+        <v>40</v>
+      </c>
+      <c r="J103" s="1">
+        <v>34</v>
+      </c>
+      <c r="K103" s="1">
+        <v>8</v>
+      </c>
+      <c r="L103" s="1">
+        <v>12</v>
+      </c>
+      <c r="M103" s="1">
+        <v>6</v>
+      </c>
+      <c r="N103" s="1">
+        <v>14</v>
+      </c>
+      <c r="O103" s="1">
+        <v>8</v>
+      </c>
+      <c r="P103" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q103" s="1">
+        <v>7</v>
+      </c>
+      <c r="R103" s="1">
+        <v>33</v>
+      </c>
+      <c r="S103" s="1">
+        <v>5</v>
+      </c>
+      <c r="T103" s="1">
+        <v>13</v>
+      </c>
+      <c r="U103" s="1">
+        <v>9</v>
+      </c>
+      <c r="V103" s="1">
+        <v>19</v>
+      </c>
+      <c r="W103" s="1">
+        <v>12</v>
+      </c>
+      <c r="X103" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y103" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z103" s="1">
+        <v>51</v>
+      </c>
+      <c r="AA103" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB103" s="1">
+        <v>16</v>
+      </c>
+      <c r="AC103" s="1">
+        <v>25</v>
+      </c>
+      <c r="AD103" s="1">
+        <v>11</v>
+      </c>
+      <c r="AE103" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF103" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG103" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH103" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI103" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ103" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK103" s="1">
+        <v>5</v>
+      </c>
+      <c r="AL103" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM103" s="1">
+        <v>2</v>
+      </c>
+      <c r="AN103" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO103" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP103" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ103" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR103" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS103" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT103" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU103" s="1">
+        <v>6</v>
+      </c>
+      <c r="AV103" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW103" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX103" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY103" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ103" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA103" s="1">
+        <v>16</v>
+      </c>
+      <c r="BB103" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC103" s="1">
+        <v>20</v>
+      </c>
+      <c r="BD103" s="1">
+        <v>5</v>
+      </c>
+      <c r="BE103" s="1">
+        <v>19</v>
+      </c>
+      <c r="BF103" s="1">
+        <v>26</v>
+      </c>
+      <c r="BG103" s="1">
+        <v>22</v>
+      </c>
+      <c r="BH103" s="1">
+        <v>17</v>
+      </c>
+      <c r="BI103" s="1">
+        <v>10</v>
+      </c>
+      <c r="BJ103" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK103" s="1">
+        <v>6</v>
+      </c>
+      <c r="BL103" s="1">
+        <v>6</v>
+      </c>
+      <c r="BM103" s="1">
+        <v>6</v>
+      </c>
+      <c r="BN103" s="1">
+        <v>5</v>
+      </c>
+      <c r="BO103" s="1">
+        <v>1</v>
+      </c>
+      <c r="BP103" s="1">
+        <v>2</v>
+      </c>
+      <c r="BQ103" s="1">
+        <v>11</v>
+      </c>
+      <c r="BR103" s="1">
+        <v>6</v>
+      </c>
+      <c r="BS103" s="1">
+        <v>2</v>
+      </c>
+      <c r="BT103" s="1">
+        <v>9</v>
+      </c>
+      <c r="BU103" s="1">
+        <v>15</v>
+      </c>
+      <c r="BV103" s="1">
+        <v>6</v>
+      </c>
+      <c r="BW103" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX103" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY103" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ103" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA103" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB103" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC103" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD103" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE103" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF103" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG103" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH103" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI103" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ103" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK103" s="1">
+        <v>1</v>
+      </c>
+      <c r="CL103" s="1">
+        <v>2</v>
+      </c>
+      <c r="CM103" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN103" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO103" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP103" s="1">
+        <v>2</v>
+      </c>
+      <c r="CQ103" s="1">
+        <v>4</v>
+      </c>
+      <c r="CR103" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:96">
+      <c r="A104" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B104" s="1">
+        <v>7</v>
+      </c>
+      <c r="C104" s="1">
+        <v>6</v>
+      </c>
+      <c r="D104" s="1">
+        <v>1</v>
+      </c>
+      <c r="E104" s="1">
+        <v>0</v>
+      </c>
+      <c r="F104" s="1">
+        <v>1</v>
+      </c>
+      <c r="G104" s="1">
+        <v>11</v>
+      </c>
+      <c r="H104" s="1">
+        <v>6</v>
+      </c>
+      <c r="I104" s="1">
+        <v>9</v>
+      </c>
+      <c r="J104" s="1">
+        <v>24</v>
+      </c>
+      <c r="K104" s="1">
+        <v>1</v>
+      </c>
+      <c r="L104" s="1">
+        <v>3</v>
+      </c>
+      <c r="M104" s="1">
+        <v>2</v>
+      </c>
+      <c r="N104" s="1">
+        <v>3</v>
+      </c>
+      <c r="O104" s="1">
+        <v>11</v>
+      </c>
+      <c r="P104" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q104" s="1">
+        <v>20</v>
+      </c>
+      <c r="R104" s="1">
+        <v>18</v>
+      </c>
+      <c r="S104" s="1">
+        <v>11</v>
+      </c>
+      <c r="T104" s="1">
+        <v>17</v>
+      </c>
+      <c r="U104" s="1">
+        <v>18</v>
+      </c>
+      <c r="V104" s="1">
+        <v>11</v>
+      </c>
+      <c r="W104" s="1">
+        <v>13</v>
+      </c>
+      <c r="X104" s="1">
+        <v>9</v>
+      </c>
+      <c r="Y104" s="1">
+        <v>7</v>
+      </c>
+      <c r="Z104" s="1">
+        <v>15</v>
+      </c>
+      <c r="AA104" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB104" s="1">
+        <v>8</v>
+      </c>
+      <c r="AC104" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD104" s="1">
+        <v>12</v>
+      </c>
+      <c r="AE104" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF104" s="1">
+        <v>12</v>
+      </c>
+      <c r="AG104" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH104" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI104" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ104" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK104" s="1">
+        <v>4</v>
+      </c>
+      <c r="AL104" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM104" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN104" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO104" s="1">
+        <v>6</v>
+      </c>
+      <c r="AP104" s="1">
+        <v>5</v>
+      </c>
+      <c r="AQ104" s="1">
+        <v>2</v>
+      </c>
+      <c r="AR104" s="1">
+        <v>5</v>
+      </c>
+      <c r="AS104" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT104" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU104" s="1">
+        <v>5</v>
+      </c>
+      <c r="AV104" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW104" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX104" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY104" s="1">
+        <v>5</v>
+      </c>
+      <c r="AZ104" s="1">
+        <v>6</v>
+      </c>
+      <c r="BA104" s="1">
+        <v>17</v>
+      </c>
+      <c r="BB104" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC104" s="1">
+        <v>7</v>
+      </c>
+      <c r="BD104" s="1">
+        <v>7</v>
+      </c>
+      <c r="BE104" s="1">
+        <v>9</v>
+      </c>
+      <c r="BF104" s="1">
+        <v>5</v>
+      </c>
+      <c r="BG104" s="1">
+        <v>2</v>
+      </c>
+      <c r="BH104" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI104" s="1">
+        <v>12</v>
+      </c>
+      <c r="BJ104" s="1">
+        <v>9</v>
+      </c>
+      <c r="BK104" s="1">
+        <v>15</v>
+      </c>
+      <c r="BL104" s="1">
+        <v>11</v>
+      </c>
+      <c r="BM104" s="1">
+        <v>5</v>
+      </c>
+      <c r="BN104" s="1">
+        <v>9</v>
+      </c>
+      <c r="BO104" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP104" s="1">
+        <v>9</v>
+      </c>
+      <c r="BQ104" s="1">
+        <v>7</v>
+      </c>
+      <c r="BR104" s="1">
+        <v>16</v>
+      </c>
+      <c r="BS104" s="1">
+        <v>15</v>
+      </c>
+      <c r="BT104" s="1">
+        <v>27</v>
+      </c>
+      <c r="BU104" s="1">
+        <v>14</v>
+      </c>
+      <c r="BV104" s="1">
+        <v>1</v>
+      </c>
+      <c r="BW104" s="1">
+        <v>3</v>
+      </c>
+      <c r="BX104" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY104" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ104" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA104" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB104" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC104" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD104" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE104" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF104" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG104" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH104" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI104" s="1">
+        <v>1</v>
+      </c>
+      <c r="CJ104" s="1">
+        <v>2</v>
+      </c>
+      <c r="CK104" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL104" s="1">
+        <v>4</v>
+      </c>
+      <c r="CM104" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN104" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO104" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP104" s="1">
+        <v>4</v>
+      </c>
+      <c r="CQ104" s="1">
+        <v>4</v>
+      </c>
+      <c r="CR104" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:96">
+      <c r="A105" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B105" s="1">
+        <v>20</v>
+      </c>
+      <c r="C105" s="1">
+        <v>2</v>
+      </c>
+      <c r="D105" s="1">
+        <v>3</v>
+      </c>
+      <c r="E105" s="1">
+        <v>14</v>
+      </c>
+      <c r="F105" s="1">
+        <v>0</v>
+      </c>
+      <c r="G105" s="1">
+        <v>26</v>
+      </c>
+      <c r="H105" s="1">
+        <v>0</v>
+      </c>
+      <c r="I105" s="1">
+        <v>8</v>
+      </c>
+      <c r="J105" s="1">
+        <v>0</v>
+      </c>
+      <c r="K105" s="1">
+        <v>4</v>
+      </c>
+      <c r="L105" s="1">
+        <v>2</v>
+      </c>
+      <c r="M105" s="1">
+        <v>13</v>
+      </c>
+      <c r="N105" s="1">
+        <v>8</v>
+      </c>
+      <c r="O105" s="1">
+        <v>0</v>
+      </c>
+      <c r="P105" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q105" s="1">
+        <v>4</v>
+      </c>
+      <c r="R105" s="1">
+        <v>0</v>
+      </c>
+      <c r="S105" s="1">
+        <v>5</v>
+      </c>
+      <c r="T105" s="1">
+        <v>1</v>
+      </c>
+      <c r="U105" s="1">
+        <v>8</v>
+      </c>
+      <c r="V105" s="1">
+        <v>6</v>
+      </c>
+      <c r="W105" s="1">
+        <v>13</v>
+      </c>
+      <c r="X105" s="1">
+        <v>16</v>
+      </c>
+      <c r="Y105" s="1">
+        <v>13</v>
+      </c>
+      <c r="Z105" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA105" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB105" s="1">
+        <v>7</v>
+      </c>
+      <c r="AC105" s="1">
+        <v>12</v>
+      </c>
+      <c r="AD105" s="1">
+        <v>7</v>
+      </c>
+      <c r="AE105" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF105" s="1">
+        <v>12</v>
+      </c>
+      <c r="AG105" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH105" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI105" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ105" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK105" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL105" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM105" s="1">
+        <v>8</v>
+      </c>
+      <c r="AN105" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO105" s="1">
+        <v>5</v>
+      </c>
+      <c r="AP105" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ105" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR105" s="1">
+        <v>2</v>
+      </c>
+      <c r="AS105" s="1">
+        <v>2</v>
+      </c>
+      <c r="AT105" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU105" s="1">
+        <v>6</v>
+      </c>
+      <c r="AV105" s="1">
+        <v>2</v>
+      </c>
+      <c r="AW105" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX105" s="1">
+        <v>3</v>
+      </c>
+      <c r="AY105" s="1">
+        <v>2</v>
+      </c>
+      <c r="AZ105" s="1">
+        <v>7</v>
+      </c>
+      <c r="BA105" s="1">
+        <v>11</v>
+      </c>
+      <c r="BB105" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC105" s="1">
+        <v>4</v>
+      </c>
+      <c r="BD105" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE105" s="1">
+        <v>5</v>
+      </c>
+      <c r="BF105" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG105" s="1">
+        <v>7</v>
+      </c>
+      <c r="BH105" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI105" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ105" s="1">
+        <v>3</v>
+      </c>
+      <c r="BK105" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL105" s="1">
+        <v>11</v>
+      </c>
+      <c r="BM105" s="1">
+        <v>14</v>
+      </c>
+      <c r="BN105" s="1">
+        <v>6</v>
+      </c>
+      <c r="BO105" s="1">
+        <v>10</v>
+      </c>
+      <c r="BP105" s="1">
+        <v>4</v>
+      </c>
+      <c r="BQ105" s="1">
+        <v>11</v>
+      </c>
+      <c r="BR105" s="1">
+        <v>7</v>
+      </c>
+      <c r="BS105" s="1">
+        <v>9</v>
+      </c>
+      <c r="BT105" s="1">
+        <v>10</v>
+      </c>
+      <c r="BU105" s="1">
+        <v>6</v>
+      </c>
+      <c r="BV105" s="1">
+        <v>1</v>
+      </c>
+      <c r="BW105" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX105" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY105" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ105" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA105" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB105" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC105" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD105" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE105" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF105" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG105" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH105" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI105" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ105" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK105" s="1">
+        <v>2</v>
+      </c>
+      <c r="CL105" s="1">
+        <v>1</v>
+      </c>
+      <c r="CM105" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN105" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO105" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP105" s="1">
+        <v>3</v>
+      </c>
+      <c r="CQ105" s="1">
+        <v>0</v>
+      </c>
+      <c r="CR105" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:96">
+      <c r="A106" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B106" s="1">
+        <v>1</v>
+      </c>
+      <c r="C106" s="1">
+        <v>2</v>
+      </c>
+      <c r="D106" s="1">
+        <v>0</v>
+      </c>
+      <c r="E106" s="1">
+        <v>0</v>
+      </c>
+      <c r="F106" s="1">
+        <v>0</v>
+      </c>
+      <c r="G106" s="1">
+        <v>0</v>
+      </c>
+      <c r="H106" s="1">
+        <v>0</v>
+      </c>
+      <c r="I106" s="1">
+        <v>0</v>
+      </c>
+      <c r="J106" s="1">
+        <v>0</v>
+      </c>
+      <c r="K106" s="1">
+        <v>0</v>
+      </c>
+      <c r="L106" s="1">
+        <v>0</v>
+      </c>
+      <c r="M106" s="1">
+        <v>0</v>
+      </c>
+      <c r="N106" s="1">
+        <v>0</v>
+      </c>
+      <c r="O106" s="1">
+        <v>0</v>
+      </c>
+      <c r="P106" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q106" s="1">
+        <v>0</v>
+      </c>
+      <c r="R106" s="1">
+        <v>0</v>
+      </c>
+      <c r="S106" s="1">
+        <v>0</v>
+      </c>
+      <c r="T106" s="1">
+        <v>0</v>
+      </c>
+      <c r="U106" s="1">
+        <v>0</v>
+      </c>
+      <c r="V106" s="1">
+        <v>0</v>
+      </c>
+      <c r="W106" s="1">
+        <v>0</v>
+      </c>
+      <c r="X106" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y106" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z106" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA106" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB106" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC106" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD106" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE106" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF106" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG106" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH106" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI106" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ106" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK106" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL106" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM106" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN106" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO106" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP106" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ106" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR106" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS106" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT106" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU106" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV106" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW106" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX106" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY106" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ106" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA106" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB106" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC106" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD106" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE106" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF106" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG106" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH106" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI106" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ106" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK106" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL106" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM106" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN106" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO106" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP106" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ106" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR106" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS106" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT106" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU106" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV106" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW106" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX106" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY106" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ106" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA106" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB106" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC106" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD106" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE106" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF106" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG106" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH106" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI106" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ106" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK106" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL106" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM106" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN106" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO106" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP106" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ106" s="1">
+        <v>0</v>
+      </c>
+      <c r="CR106" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:96">
+      <c r="A107" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B107" s="1">
+        <v>0</v>
+      </c>
+      <c r="C107" s="1">
+        <v>0</v>
+      </c>
+      <c r="D107" s="1">
+        <v>0</v>
+      </c>
+      <c r="E107" s="1">
+        <v>0</v>
+      </c>
+      <c r="F107" s="1">
+        <v>0</v>
+      </c>
+      <c r="G107" s="1">
+        <v>2</v>
+      </c>
+      <c r="H107" s="1">
+        <v>2</v>
+      </c>
+      <c r="I107" s="1">
+        <v>0</v>
+      </c>
+      <c r="J107" s="1">
+        <v>0</v>
+      </c>
+      <c r="K107" s="1">
+        <v>0</v>
+      </c>
+      <c r="L107" s="1">
+        <v>0</v>
+      </c>
+      <c r="M107" s="1">
+        <v>0</v>
+      </c>
+      <c r="N107" s="1">
+        <v>0</v>
+      </c>
+      <c r="O107" s="1">
+        <v>0</v>
+      </c>
+      <c r="P107" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>0</v>
+      </c>
+      <c r="R107" s="1">
+        <v>0</v>
+      </c>
+      <c r="S107" s="1">
+        <v>0</v>
+      </c>
+      <c r="T107" s="1">
+        <v>0</v>
+      </c>
+      <c r="U107" s="1">
+        <v>0</v>
+      </c>
+      <c r="V107" s="1">
+        <v>0</v>
+      </c>
+      <c r="W107" s="1">
+        <v>0</v>
+      </c>
+      <c r="X107" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y107" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z107" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA107" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB107" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC107" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD107" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE107" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF107" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG107" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH107" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI107" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ107" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK107" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL107" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM107" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN107" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO107" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP107" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ107" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR107" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS107" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT107" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU107" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV107" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW107" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX107" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY107" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ107" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA107" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB107" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC107" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD107" s="1">
+        <v>2</v>
+      </c>
+      <c r="BE107" s="1">
+        <v>6</v>
+      </c>
+      <c r="BF107" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG107" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH107" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI107" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ107" s="1">
+        <v>2</v>
+      </c>
+      <c r="BK107" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL107" s="1">
+        <v>3</v>
+      </c>
+      <c r="BM107" s="1">
+        <v>2</v>
+      </c>
+      <c r="BN107" s="1">
+        <v>1</v>
+      </c>
+      <c r="BO107" s="1">
+        <v>5</v>
+      </c>
+      <c r="BP107" s="1">
+        <v>1</v>
+      </c>
+      <c r="BQ107" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR107" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS107" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT107" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU107" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV107" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW107" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX107" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY107" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ107" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA107" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB107" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC107" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD107" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE107" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF107" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG107" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH107" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI107" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ107" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK107" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL107" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM107" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN107" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO107" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP107" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ107" s="1">
+        <v>0</v>
+      </c>
+      <c r="CR107" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:96">
+      <c r="A108" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B108" s="1">
+        <v>0</v>
+      </c>
+      <c r="C108" s="1">
+        <v>0</v>
+      </c>
+      <c r="D108" s="1">
+        <v>1</v>
+      </c>
+      <c r="E108" s="1">
+        <v>0</v>
+      </c>
+      <c r="F108" s="1">
+        <v>0</v>
+      </c>
+      <c r="G108" s="1">
+        <v>0</v>
+      </c>
+      <c r="H108" s="1">
+        <v>1</v>
+      </c>
+      <c r="I108" s="1">
+        <v>0</v>
+      </c>
+      <c r="J108" s="1">
+        <v>1</v>
+      </c>
+      <c r="K108" s="1">
+        <v>0</v>
+      </c>
+      <c r="L108" s="1">
+        <v>0</v>
+      </c>
+      <c r="M108" s="1">
+        <v>0</v>
+      </c>
+      <c r="N108" s="1">
+        <v>0</v>
+      </c>
+      <c r="O108" s="1">
+        <v>0</v>
+      </c>
+      <c r="P108" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q108" s="1">
+        <v>0</v>
+      </c>
+      <c r="R108" s="1">
+        <v>0</v>
+      </c>
+      <c r="S108" s="1">
+        <v>0</v>
+      </c>
+      <c r="T108" s="1">
+        <v>0</v>
+      </c>
+      <c r="U108" s="1">
+        <v>0</v>
+      </c>
+      <c r="V108" s="1">
+        <v>0</v>
+      </c>
+      <c r="W108" s="1">
+        <v>0</v>
+      </c>
+      <c r="X108" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y108" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z108" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA108" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB108" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC108" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD108" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE108" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF108" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG108" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH108" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI108" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ108" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK108" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL108" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM108" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN108" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO108" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP108" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ108" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR108" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS108" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT108" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU108" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV108" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW108" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX108" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY108" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ108" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA108" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB108" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC108" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD108" s="1">
+        <v>2</v>
+      </c>
+      <c r="BE108" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF108" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG108" s="1">
+        <v>2</v>
+      </c>
+      <c r="BH108" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI108" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ108" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK108" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL108" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM108" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN108" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO108" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP108" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ108" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR108" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS108" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT108" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU108" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV108" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW108" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX108" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY108" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ108" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA108" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB108" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC108" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD108" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE108" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF108" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG108" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH108" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI108" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ108" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK108" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL108" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM108" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN108" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO108" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP108" s="1">
+        <v>1</v>
+      </c>
+      <c r="CQ108" s="1">
+        <v>0</v>
+      </c>
+      <c r="CR108" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:96">
+      <c r="A109" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B109" s="1">
+        <v>0</v>
+      </c>
+      <c r="C109" s="1">
+        <v>2</v>
+      </c>
+      <c r="D109" s="1">
+        <v>0</v>
+      </c>
+      <c r="E109" s="1">
+        <v>0</v>
+      </c>
+      <c r="F109" s="1">
+        <v>0</v>
+      </c>
+      <c r="G109" s="1">
+        <v>0</v>
+      </c>
+      <c r="H109" s="1">
+        <v>0</v>
+      </c>
+      <c r="I109" s="1">
+        <v>0</v>
+      </c>
+      <c r="J109" s="1">
+        <v>0</v>
+      </c>
+      <c r="K109" s="1">
+        <v>0</v>
+      </c>
+      <c r="L109" s="1">
+        <v>0</v>
+      </c>
+      <c r="M109" s="1">
+        <v>0</v>
+      </c>
+      <c r="N109" s="1">
+        <v>0</v>
+      </c>
+      <c r="O109" s="1">
+        <v>0</v>
+      </c>
+      <c r="P109" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q109" s="1">
+        <v>0</v>
+      </c>
+      <c r="R109" s="1">
+        <v>0</v>
+      </c>
+      <c r="S109" s="1">
+        <v>0</v>
+      </c>
+      <c r="T109" s="1">
+        <v>0</v>
+      </c>
+      <c r="U109" s="1">
+        <v>0</v>
+      </c>
+      <c r="V109" s="1">
+        <v>0</v>
+      </c>
+      <c r="W109" s="1">
+        <v>0</v>
+      </c>
+      <c r="X109" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y109" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z109" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA109" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB109" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC109" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD109" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE109" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF109" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG109" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH109" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI109" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ109" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK109" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL109" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM109" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN109" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO109" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP109" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ109" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR109" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS109" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT109" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU109" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV109" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW109" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX109" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY109" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ109" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA109" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB109" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC109" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD109" s="1">
+        <v>2</v>
+      </c>
+      <c r="BE109" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF109" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG109" s="1">
+        <v>2</v>
+      </c>
+      <c r="BH109" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI109" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ109" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK109" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL109" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM109" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN109" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO109" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP109" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ109" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR109" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS109" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT109" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU109" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV109" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW109" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX109" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY109" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ109" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA109" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB109" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC109" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD109" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE109" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF109" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG109" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH109" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI109" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ109" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK109" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL109" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM109" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN109" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO109" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP109" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ109" s="1">
+        <v>0</v>
+      </c>
+      <c r="CR109" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:96">
+      <c r="A110" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B110" s="1">
+        <v>0</v>
+      </c>
+      <c r="C110" s="1">
+        <v>3</v>
+      </c>
+      <c r="D110" s="1">
+        <v>0</v>
+      </c>
+      <c r="E110" s="1">
+        <v>0</v>
+      </c>
+      <c r="F110" s="1">
+        <v>0</v>
+      </c>
+      <c r="G110" s="1">
+        <v>0</v>
+      </c>
+      <c r="H110" s="1">
+        <v>0</v>
+      </c>
+      <c r="I110" s="1">
+        <v>0</v>
+      </c>
+      <c r="J110" s="1">
+        <v>0</v>
+      </c>
+      <c r="K110" s="1">
+        <v>0</v>
+      </c>
+      <c r="L110" s="1">
+        <v>0</v>
+      </c>
+      <c r="M110" s="1">
+        <v>0</v>
+      </c>
+      <c r="N110" s="1">
+        <v>0</v>
+      </c>
+      <c r="O110" s="1">
+        <v>0</v>
+      </c>
+      <c r="P110" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q110" s="1">
+        <v>0</v>
+      </c>
+      <c r="R110" s="1">
+        <v>0</v>
+      </c>
+      <c r="S110" s="1">
+        <v>0</v>
+      </c>
+      <c r="T110" s="1">
+        <v>0</v>
+      </c>
+      <c r="U110" s="1">
+        <v>0</v>
+      </c>
+      <c r="V110" s="1">
+        <v>0</v>
+      </c>
+      <c r="W110" s="1">
+        <v>0</v>
+      </c>
+      <c r="X110" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y110" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z110" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA110" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB110" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC110" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD110" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE110" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF110" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG110" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH110" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI110" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ110" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK110" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL110" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM110" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN110" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO110" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP110" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ110" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR110" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS110" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT110" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU110" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV110" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW110" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX110" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY110" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ110" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA110" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB110" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC110" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD110" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE110" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF110" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG110" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH110" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI110" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ110" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK110" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL110" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM110" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN110" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO110" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP110" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ110" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR110" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS110" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT110" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU110" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV110" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW110" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX110" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY110" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ110" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA110" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB110" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC110" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD110" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE110" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF110" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG110" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH110" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI110" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ110" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK110" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL110" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM110" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN110" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO110" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP110" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ110" s="1">
+        <v>0</v>
+      </c>
+      <c r="CR110" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:96">
+      <c r="A111" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B111" s="1">
+        <v>0</v>
+      </c>
+      <c r="C111" s="1">
+        <v>0</v>
+      </c>
+      <c r="D111" s="1">
+        <v>1</v>
+      </c>
+      <c r="E111" s="1">
+        <v>0</v>
+      </c>
+      <c r="F111" s="1">
+        <v>0</v>
+      </c>
+      <c r="G111" s="1">
+        <v>0</v>
+      </c>
+      <c r="H111" s="1">
+        <v>0</v>
+      </c>
+      <c r="I111" s="1">
+        <v>0</v>
+      </c>
+      <c r="J111" s="1">
+        <v>1</v>
+      </c>
+      <c r="K111" s="1">
+        <v>0</v>
+      </c>
+      <c r="L111" s="1">
+        <v>0</v>
+      </c>
+      <c r="M111" s="1">
+        <v>0</v>
+      </c>
+      <c r="N111" s="1">
+        <v>0</v>
+      </c>
+      <c r="O111" s="1">
+        <v>0</v>
+      </c>
+      <c r="P111" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q111" s="1">
+        <v>0</v>
+      </c>
+      <c r="R111" s="1">
+        <v>0</v>
+      </c>
+      <c r="S111" s="1">
+        <v>0</v>
+      </c>
+      <c r="T111" s="1">
+        <v>0</v>
+      </c>
+      <c r="U111" s="1">
+        <v>0</v>
+      </c>
+      <c r="V111" s="1">
+        <v>0</v>
+      </c>
+      <c r="W111" s="1">
+        <v>0</v>
+      </c>
+      <c r="X111" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y111" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z111" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA111" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB111" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC111" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD111" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE111" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF111" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG111" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH111" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI111" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ111" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK111" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL111" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM111" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN111" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO111" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP111" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ111" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR111" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS111" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT111" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU111" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV111" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW111" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX111" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY111" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ111" s="1">
+        <v>7</v>
+      </c>
+      <c r="BA111" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB111" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC111" s="1">
+        <v>3</v>
+      </c>
+      <c r="BD111" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE111" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF111" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG111" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH111" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI111" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ111" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK111" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL111" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM111" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN111" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO111" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP111" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ111" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR111" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS111" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT111" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU111" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV111" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW111" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX111" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY111" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ111" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA111" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB111" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC111" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD111" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE111" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF111" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG111" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH111" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI111" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ111" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK111" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL111" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM111" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN111" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO111" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP111" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ111" s="1">
+        <v>0</v>
+      </c>
+      <c r="CR111" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:96">
+      <c r="A112" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B112" s="1">
+        <v>0</v>
+      </c>
+      <c r="C112" s="1">
+        <v>1</v>
+      </c>
+      <c r="D112" s="1">
+        <v>0</v>
+      </c>
+      <c r="E112" s="1">
+        <v>0</v>
+      </c>
+      <c r="F112" s="1">
+        <v>0</v>
+      </c>
+      <c r="G112" s="1">
+        <v>1</v>
+      </c>
+      <c r="H112" s="1">
+        <v>1</v>
+      </c>
+      <c r="I112" s="1">
+        <v>0</v>
+      </c>
+      <c r="J112" s="1">
+        <v>0</v>
+      </c>
+      <c r="K112" s="1">
+        <v>0</v>
+      </c>
+      <c r="L112" s="1">
+        <v>0</v>
+      </c>
+      <c r="M112" s="1">
+        <v>1</v>
+      </c>
+      <c r="N112" s="1">
+        <v>0</v>
+      </c>
+      <c r="O112" s="1">
+        <v>0</v>
+      </c>
+      <c r="P112" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q112" s="1">
+        <v>0</v>
+      </c>
+      <c r="R112" s="1">
+        <v>0</v>
+      </c>
+      <c r="S112" s="1">
+        <v>0</v>
+      </c>
+      <c r="T112" s="1">
+        <v>0</v>
+      </c>
+      <c r="U112" s="1">
+        <v>0</v>
+      </c>
+      <c r="V112" s="1">
+        <v>0</v>
+      </c>
+      <c r="W112" s="1">
+        <v>0</v>
+      </c>
+      <c r="X112" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y112" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z112" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA112" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB112" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC112" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD112" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE112" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF112" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG112" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH112" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI112" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ112" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK112" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL112" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM112" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN112" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO112" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP112" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ112" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR112" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS112" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT112" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU112" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV112" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW112" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX112" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY112" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ112" s="1">
+        <v>3</v>
+      </c>
+      <c r="BA112" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB112" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC112" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD112" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE112" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF112" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG112" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH112" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI112" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ112" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK112" s="1">
+        <v>2</v>
+      </c>
+      <c r="BL112" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM112" s="1">
+        <v>2</v>
+      </c>
+      <c r="BN112" s="1">
+        <v>3</v>
+      </c>
+      <c r="BO112" s="1">
+        <v>1</v>
+      </c>
+      <c r="BP112" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ112" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR112" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS112" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT112" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU112" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV112" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW112" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX112" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY112" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ112" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA112" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB112" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC112" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD112" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE112" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF112" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG112" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH112" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI112" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ112" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK112" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL112" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM112" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN112" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO112" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP112" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ112" s="1">
+        <v>0</v>
+      </c>
+      <c r="CR112" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:96">
+      <c r="A113" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B113" s="1">
+        <v>0</v>
+      </c>
+      <c r="C113" s="1">
+        <v>0</v>
+      </c>
+      <c r="D113" s="1">
+        <v>0</v>
+      </c>
+      <c r="E113" s="1">
+        <v>0</v>
+      </c>
+      <c r="F113" s="1">
+        <v>0</v>
+      </c>
+      <c r="G113" s="1">
+        <v>0</v>
+      </c>
+      <c r="H113" s="1">
+        <v>0</v>
+      </c>
+      <c r="I113" s="1">
+        <v>1</v>
+      </c>
+      <c r="J113" s="1">
+        <v>0</v>
+      </c>
+      <c r="K113" s="1">
+        <v>0</v>
+      </c>
+      <c r="L113" s="1">
+        <v>0</v>
+      </c>
+      <c r="M113" s="1">
+        <v>0</v>
+      </c>
+      <c r="N113" s="1">
+        <v>0</v>
+      </c>
+      <c r="O113" s="1">
+        <v>0</v>
+      </c>
+      <c r="P113" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q113" s="1">
+        <v>0</v>
+      </c>
+      <c r="R113" s="1">
+        <v>0</v>
+      </c>
+      <c r="S113" s="1">
+        <v>0</v>
+      </c>
+      <c r="T113" s="1">
+        <v>0</v>
+      </c>
+      <c r="U113" s="1">
+        <v>0</v>
+      </c>
+      <c r="V113" s="1">
+        <v>0</v>
+      </c>
+      <c r="W113" s="1">
+        <v>0</v>
+      </c>
+      <c r="X113" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y113" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z113" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA113" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB113" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC113" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD113" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE113" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF113" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG113" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH113" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI113" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ113" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK113" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL113" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM113" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN113" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO113" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP113" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ113" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR113" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS113" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT113" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU113" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV113" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW113" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX113" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY113" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ113" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA113" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB113" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC113" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD113" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE113" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF113" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG113" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH113" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI113" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ113" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK113" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL113" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM113" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN113" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO113" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP113" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ113" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR113" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS113" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT113" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU113" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV113" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW113" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX113" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY113" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ113" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA113" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB113" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC113" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD113" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE113" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF113" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG113" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH113" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI113" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ113" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK113" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL113" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM113" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN113" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO113" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP113" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ113" s="1">
+        <v>0</v>
+      </c>
+      <c r="CR113" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Data/mean intensity.xlsx
+++ b/Data/mean intensity.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9707" activeTab="5"/>
+    <workbookView windowWidth="23040" windowHeight="9707" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="65">
   <si>
     <t>Row Labels</t>
   </si>
@@ -179,9 +179,6 @@
   </si>
   <si>
     <t>R. muhsamae</t>
-  </si>
-  <si>
-    <t>A. cohaerens</t>
   </si>
   <si>
     <t>H. leachi</t>
@@ -2114,9 +2111,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'fake prevalence'!$A$2:$A$16</c:f>
+              <c:f>'fake prevalence'!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>R. decoloratus</c:v>
                 </c:pt>
@@ -2142,18 +2139,15 @@
                   <c:v>R. sanguineus</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>A. cohaerens</c:v>
+                  <c:v>R. senegalensis</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>R. senegalensis</c:v>
+                  <c:v>H. leachi</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>H. leachi</c:v>
+                  <c:v>Rhipicephalus sp.</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Rhipicephalus sp.</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>Amblyomma sp.</c:v>
                 </c:pt>
               </c:strCache>
@@ -2161,10 +2155,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'fake prevalence'!$B$2:$B$16</c:f>
+              <c:f>'fake prevalence'!$B$2:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>72.63</c:v>
                 </c:pt>
@@ -2190,18 +2184,15 @@
                   <c:v>7.37</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.32</c:v>
+                  <c:v>3.16</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.16</c:v>
+                  <c:v>2.11</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.11</c:v>
+                  <c:v>1.05</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.05</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>1.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -5946,6 +5937,13 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -6063,7 +6061,7 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
@@ -6073,7 +6071,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3489960" y="1051560"/>
-        <a:ext cx="6118860" cy="3177540"/>
+        <a:ext cx="6118860" cy="2994660"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9108,8 +9106,8 @@
   <sheetPr/>
   <dimension ref="A1:AG84"/>
   <sheetViews>
-    <sheetView zoomScale="69" zoomScaleNormal="69" topLeftCell="M1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="69" zoomScaleNormal="69" topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="S81" sqref="S81"/>
     </sheetView>
@@ -18556,7 +18554,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B12"/>
+      <selection activeCell="A9" sqref="$A9:$XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -18702,10 +18700,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -18784,18 +18782,18 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B10" s="1">
-        <v>6.32</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B11" s="1">
-        <v>3.16</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -18803,7 +18801,7 @@
         <v>49</v>
       </c>
       <c r="B12" s="1">
-        <v>2.11</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -18811,14 +18809,6 @@
         <v>50</v>
       </c>
       <c r="B13" s="1">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="1">
         <v>1.05</v>
       </c>
     </row>
@@ -18834,7 +18824,7 @@
   <sheetPr/>
   <dimension ref="A1:DB113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CQ1" workbookViewId="0">
+    <sheetView topLeftCell="CQ1" workbookViewId="0">
       <selection activeCell="DA22" sqref="DA22"/>
     </sheetView>
   </sheetViews>
@@ -19133,13 +19123,13 @@
         <v>95</v>
       </c>
       <c r="CU1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="CV1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="CV1" s="1" t="s">
+      <c r="CW1" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:105">
@@ -19441,10 +19431,10 @@
         <v>0.97584</v>
       </c>
       <c r="CZ2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="DA2" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="DA2" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:101">
@@ -20045,7 +20035,7 @@
         <v>1.3487</v>
       </c>
       <c r="CZ4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="DA4" s="1">
         <v>12</v>
@@ -20350,7 +20340,7 @@
         <v>1.3729</v>
       </c>
       <c r="CZ5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="DA5" s="1">
         <v>12.4947</v>
@@ -20658,7 +20648,7 @@
         <v>1.3823</v>
       </c>
       <c r="CZ6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="DA6" s="1">
         <v>13.9789</v>
@@ -20669,7 +20659,7 @@
     </row>
     <row r="7" s="1" customFormat="1" spans="1:106">
       <c r="A7" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -20966,13 +20956,13 @@
         <v>1.389</v>
       </c>
       <c r="CZ7" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="DA7" s="1">
         <v>14.9683</v>
       </c>
       <c r="DB7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:106">
@@ -21274,13 +21264,13 @@
         <v>1.3953</v>
       </c>
       <c r="CZ8" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="DA8" s="1">
         <v>12.9127</v>
       </c>
       <c r="DB8" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:101">
@@ -21881,15 +21871,15 @@
         <v>1.4076</v>
       </c>
       <c r="CZ10" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="DA10" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:101">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -22485,7 +22475,7 @@
         <v>1.4177</v>
       </c>
       <c r="CZ12" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="DA12" s="1">
         <v>11.4724</v>
@@ -22793,7 +22783,7 @@
         <v>1.4217</v>
       </c>
       <c r="CZ13" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="DA13" s="1">
         <v>12.1939</v>
@@ -22804,7 +22794,7 @@
     </row>
     <row r="14" s="1" customFormat="1" spans="1:106">
       <c r="A14" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
@@ -23101,7 +23091,7 @@
         <v>1.4248</v>
       </c>
       <c r="CZ14" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="DA14" s="1">
         <v>12.4683</v>
@@ -23121,7 +23111,7 @@
         <v>1.4272</v>
       </c>
       <c r="CZ15" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="DA15" s="1">
         <v>11.2281</v>
@@ -25473,7 +25463,7 @@
     </row>
     <row r="106" spans="1:96">
       <c r="A106" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B106" s="1">
         <v>1</v>
@@ -26633,7 +26623,7 @@
     </row>
     <row r="110" spans="1:96">
       <c r="A110" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B110" s="1">
         <v>0</v>
@@ -27503,7 +27493,7 @@
     </row>
     <row r="113" spans="1:96">
       <c r="A113" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B113" s="1">
         <v>0</v>
